--- a/src/test/resources/testdata/EasyQuoteL9.xlsx
+++ b/src/test/resources/testdata/EasyQuoteL9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="100">
   <si>
     <t>Source</t>
   </si>
@@ -119,6 +119,203 @@
   </si>
   <si>
     <t>1.75</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>346.5</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>515.0</t>
+  </si>
+  <si>
+    <t>25.75</t>
+  </si>
+  <si>
+    <t>540.75</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>36.75</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>47.25</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>67.2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>74.55</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 3.55
+Actual : 3.5500000000000003</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>166.95</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>1072.0</t>
+  </si>
+  <si>
+    <t>1087.0</t>
+  </si>
+  <si>
+    <t>54.35</t>
+  </si>
+  <si>
+    <t>1141.35</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1040.0</t>
+  </si>
+  <si>
+    <t>1055.0</t>
+  </si>
+  <si>
+    <t>52.75</t>
+  </si>
+  <si>
+    <t>1107.75</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>864.0</t>
+  </si>
+  <si>
+    <t>879.0</t>
+  </si>
+  <si>
+    <t>43.95</t>
+  </si>
+  <si>
+    <t>922.95</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>9600.0</t>
+  </si>
+  <si>
+    <t>9615.0</t>
+  </si>
+  <si>
+    <t>480.75</t>
+  </si>
+  <si>
+    <t>10095.75</t>
   </si>
 </sst>
 </file>
@@ -564,7 +761,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:V16"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -650,8 +847,8 @@
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8">
-        <v>180</v>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>34</v>
@@ -662,19 +859,45 @@
       <c r="G2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -686,11 +909,11 @@
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8">
-        <v>250</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2</v>
+      <c r="D3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>28</v>
@@ -698,19 +921,45 @@
       <c r="G3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="28.5" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -722,11 +971,11 @@
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
+      <c r="D4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>28</v>
@@ -734,19 +983,45 @@
       <c r="G4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="28.5" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -758,11 +1033,11 @@
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5</v>
+      <c r="D5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>28</v>
@@ -770,19 +1045,45 @@
       <c r="G5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="28.5" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -794,11 +1095,11 @@
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10">
-        <v>5</v>
+      <c r="D6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>28</v>
@@ -806,19 +1107,45 @@
       <c r="G6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -830,11 +1157,11 @@
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
+      <c r="D7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>28</v>
@@ -842,19 +1169,45 @@
       <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="28.5" customHeight="1">
       <c r="A8" s="6" t="s">
@@ -866,11 +1219,11 @@
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10">
-        <v>7</v>
+      <c r="D8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>28</v>
@@ -878,19 +1231,45 @@
       <c r="G8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -902,11 +1281,11 @@
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>7</v>
+      <c r="D9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>28</v>
@@ -914,19 +1293,45 @@
       <c r="G9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="28.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -938,11 +1343,11 @@
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10">
-        <v>16</v>
+      <c r="D10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>28</v>
@@ -950,19 +1355,45 @@
       <c r="G10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="28.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -974,11 +1405,11 @@
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8">
-        <v>67</v>
-      </c>
-      <c r="E11" s="10">
-        <v>16</v>
+      <c r="D11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>28</v>
@@ -986,19 +1417,45 @@
       <c r="G11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="28.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -1010,11 +1467,11 @@
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8">
-        <v>65</v>
-      </c>
-      <c r="E12" s="10">
-        <v>16</v>
+      <c r="D12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>28</v>
@@ -1022,19 +1479,45 @@
       <c r="G12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="28.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -1046,11 +1529,11 @@
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8">
-        <v>54</v>
-      </c>
-      <c r="E13" s="10">
-        <v>16</v>
+      <c r="D13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>28</v>
@@ -1058,19 +1541,45 @@
       <c r="G13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="28.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -1082,11 +1591,11 @@
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8">
-        <v>9</v>
-      </c>
-      <c r="E14" s="10">
-        <v>16</v>
+      <c r="D14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>28</v>
@@ -1094,19 +1603,45 @@
       <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="28.5" customHeight="1">
       <c r="A15" s="6" t="s">
@@ -1118,11 +1653,11 @@
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8">
-        <v>600</v>
-      </c>
-      <c r="E15" s="10">
-        <v>16</v>
+      <c r="D15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>28</v>
@@ -1130,19 +1665,45 @@
       <c r="G15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
